--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1821774.186569528</v>
+        <v>1819517.164660445</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.669905662784863</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>360.4619742408227</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.9566202902064</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.09154775245525</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>61.71927587612975</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>8.546296656423092</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>199.8205072884966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>242.7378581659482</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>156.127162662147</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33.84234274505293</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>74.75769145492349</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>197.8948535786219</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,7 +1822,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>147.1607141207224</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>217.0325349306964</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492306</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>54.61099464187743</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,7 +2175,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>39.77808571121483</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>49.00186811941023</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>147.921296784087</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,13 +2530,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>71.10762864115257</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534525</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>74.7576914549234</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>259.0206322914225</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>15.0743711067585</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>39.08107681484839</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>34.86364981121056</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>282.966021362934</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935318</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102222</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581635</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345256</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706226</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164168</v>
+        <v>87.87589738164185</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430362</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>198.8886783595684</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354223</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481854</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636891</v>
+        <v>130.2422933976545</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572838</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124685</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797749</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572793</v>
       </c>
       <c r="I43" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.607341885688</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2692.432014591167</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2692.432014591167</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2692.432014591167</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2438.670229229258</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2107.607341885688</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2107.607341885688</v>
+        <v>945.6119145756962</v>
       </c>
       <c r="Y2" t="n">
-        <v>2107.607341885688</v>
+        <v>555.4725825998845</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424004</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>550.798971477663</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>403.9090239797526</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>234.9092237180851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>234.9092237180851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>1191.835263233622</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1191.835263233622</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1191.835263233622</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2671.80409328847</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2671.80409328847</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2671.80409328847</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2671.80409328847</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2340.741205944899</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2340.741205944899</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2340.741205944899</v>
+        <v>1578.435103297744</v>
       </c>
       <c r="Y5" t="n">
-        <v>2340.741205944899</v>
+        <v>1578.435103297744</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4659,7 +4659,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.104017611879</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.34223224997</v>
+        <v>2057.147180581275</v>
       </c>
       <c r="V8" t="n">
-        <v>2010.34223224997</v>
+        <v>2057.147180581275</v>
       </c>
       <c r="W8" t="n">
-        <v>2010.34223224997</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.34223224997</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.0633493392339</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>211.6471865296038</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2274.668463554308</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282341</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>578.4172407837247</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5203,7 +5203,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>799.2098199272548</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X13" t="n">
-        <v>799.2098199272548</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y13" t="n">
-        <v>578.4172407837247</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3888.072124968687</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5306,16 +5306,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G15" t="n">
         <v>205.070220408989</v>
@@ -5355,16 +5355,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N15" t="n">
         <v>1715.000032008794</v>
@@ -5379,28 +5379,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.6274977408364</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C16" t="n">
-        <v>389.6913148129298</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D16" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,34 +5452,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799872</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1296.826797819345</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W16" t="n">
-        <v>1007.409627782384</v>
+        <v>874.5404723472665</v>
       </c>
       <c r="X16" t="n">
-        <v>779.4200768843665</v>
+        <v>646.5509214492491</v>
       </c>
       <c r="Y16" t="n">
-        <v>558.6274977408364</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,22 +5516,22 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622689</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2209.609207880055</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5616,28 +5616,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>728.5338801960606</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>559.5976972681536</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>409.4810578558178</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558178</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558178</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,7 +5671,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.657581931529</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1475.554715057172</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1420.392094206791</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>1130.974924169831</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.974924169831</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y19" t="n">
-        <v>910.1823450263004</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5750,46 +5750,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>625.8141267662577</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1076.848340014667</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5829,19 +5829,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>452.590195515477</v>
+        <v>432.2000540015824</v>
       </c>
       <c r="C22" t="n">
-        <v>283.6540125875702</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307876</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799872</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593985</v>
+        <v>999.1036114208132</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570245</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X22" t="n">
-        <v>673.3827746590072</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.590195515477</v>
+        <v>432.2000540015824</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,16 +5990,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.7425750505955</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="C25" t="n">
-        <v>637.8063921226886</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
-        <v>487.6897527103526</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>339.7766591279595</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1471.06507898474</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1216.380590778853</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>1216.380590778853</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X25" t="n">
-        <v>988.3910398808353</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.3910398808353</v>
+        <v>391.8664332433624</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6315,28 +6315,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>974.4454116758762</v>
+        <v>171.0738540998322</v>
       </c>
       <c r="C28" t="n">
-        <v>805.5092287479694</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1866.513008862232</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1866.513008862232</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W28" t="n">
-        <v>1604.876006547663</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X28" t="n">
-        <v>1376.886455649646</v>
+        <v>391.8664332433623</v>
       </c>
       <c r="Y28" t="n">
-        <v>1156.093876506116</v>
+        <v>171.0738540998322</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,52 +6461,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>673.3827746590083</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="C31" t="n">
-        <v>673.3827746590083</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>673.3827746590083</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>525.4696810766152</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>378.5797335787048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6640,31 +6640,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570256</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590083</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y31" t="n">
-        <v>673.3827746590083</v>
+        <v>260.9043113423045</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1586.925993846824</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2120.457898518748</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N32" t="n">
-        <v>2667.236715577531</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6780,7 +6780,7 @@
         <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>578.4172407837245</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6859,7 +6859,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1639.611316798946</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1350.50844992459</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1095.823961718703</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W34" t="n">
-        <v>806.4067916817419</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X34" t="n">
-        <v>578.4172407837245</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y34" t="n">
-        <v>578.4172407837245</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -7005,19 +7005,19 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>722.7353969469135</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>554.8661385527497</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>554.8661385527497</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>408.0199695040997</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>262.1969465399324</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308516</v>
+        <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152495</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992672</v>
+        <v>664.3677264992667</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834338</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275724</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931659</v>
+        <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.05301910084</v>
+        <v>1886.053019100839</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988876</v>
+        <v>1964.709007988875</v>
       </c>
       <c r="R37" t="n">
-        <v>1875.945475280147</v>
+        <v>1875.945475280146</v>
       </c>
       <c r="S37" t="n">
-        <v>1685.326515640717</v>
+        <v>1685.326515640715</v>
       </c>
       <c r="T37" t="n">
-        <v>1685.326515640717</v>
+        <v>1464.626824743984</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.428860732062</v>
+        <v>1176.59088240337</v>
       </c>
       <c r="V37" t="n">
-        <v>1230.811297059918</v>
+        <v>922.9733187312262</v>
       </c>
       <c r="W37" t="n">
-        <v>942.4610515567006</v>
+        <v>634.6230732280086</v>
       </c>
       <c r="X37" t="n">
-        <v>942.4610515567006</v>
+        <v>407.7004468637342</v>
       </c>
       <c r="Y37" t="n">
-        <v>722.7353969469135</v>
+        <v>276.1425747448912</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,19 +7172,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7199,19 +7199,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416723</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774099</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430901</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932531</v>
+        <v>364.4578361932526</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160454</v>
+        <v>244.2046325160449</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819771</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7357,7 +7357,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036722</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7448,7 +7448,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416725</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932521</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160444</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477368</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490198</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499226</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036725</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>357.0540087506643</v>
       </c>
       <c r="K44" t="n">
-        <v>1070.832524924162</v>
+        <v>690.8733824405108</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.86673817257</v>
+        <v>1141.90759568892</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844495</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903277</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7728,10 +7728,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430893</v>
+        <v>463.89815074309</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160446</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7837,19 +7837,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>260.9678829613766</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792226</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,10 +8942,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>189.7998007892645</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>443.8160624667704</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>7.630896635344811</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476844</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9638,10 +9638,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>316.1012371454192</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>76.45227440777376</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>288.7672650676785</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>96.13798426930737</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>105.1996354507097</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>73.34731650832771</v>
       </c>
       <c r="K44" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.3524204098381</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>88.6281447579691</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>104.9769292031056</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.55211842139835</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983816</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>197.5266486819506</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>108.8373873069976</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983816</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>169.5827852326846</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>19.32552431454079</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>215.1042095644603</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>92.48912964370443</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24649,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>27.50236604516846</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>152.1724499918693</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>126.9447314441798</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>184.6852994649586</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>3.556976973656958</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935316</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298067</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706227</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259151</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143244</v>
+        <v>95.29616512143261</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25363,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877635</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>86.26690455763878</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006315</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>87.28610466603484</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.196278644478477e-12</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>890935.5095408729</v>
+        <v>890935.509540873</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>890935.5095408731</v>
+        <v>890935.509540873</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>891600.3135773803</v>
+        <v>891600.3135773804</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117846</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117848</v>
-      </c>
       <c r="E2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="F2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="G2" t="n">
         <v>516206.322953078</v>
       </c>
       <c r="H2" t="n">
-        <v>516206.3229530779</v>
+        <v>516206.322953078</v>
       </c>
       <c r="I2" t="n">
         <v>516206.3229530783</v>
       </c>
       <c r="J2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530784</v>
       </c>
       <c r="K2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="L2" t="n">
-        <v>516206.3229530784</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="M2" t="n">
-        <v>516599.1617019238</v>
+        <v>516599.161701924</v>
       </c>
       <c r="N2" t="n">
+        <v>533677.1504117845</v>
+      </c>
+      <c r="O2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="O2" t="n">
-        <v>533677.1504117845</v>
-      </c>
       <c r="P2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696693</v>
+        <v>130487.3190696692</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414955</v>
+        <v>36735.10506414968</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918996</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918991</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="G4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918998</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26448,13 +26448,13 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811461</v>
+        <v>18496.05294811456</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.653297409</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.653297409</v>
       </c>
       <c r="P4" t="n">
         <v>33605.653297409</v>
@@ -26479,16 +26479,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955462</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322498.4937232976</v>
+        <v>-322498.4937232978</v>
       </c>
       <c r="C6" t="n">
+        <v>267469.3854912471</v>
+      </c>
+      <c r="D6" t="n">
         <v>267469.3854912472</v>
       </c>
-      <c r="D6" t="n">
-        <v>267469.3854912474</v>
-      </c>
       <c r="E6" t="n">
-        <v>-325703.1016132319</v>
+        <v>-325770.297103458</v>
       </c>
       <c r="F6" t="n">
-        <v>401674.3123801745</v>
+        <v>401607.1168899488</v>
       </c>
       <c r="G6" t="n">
-        <v>401674.3123801744</v>
+        <v>401607.1168899486</v>
       </c>
       <c r="H6" t="n">
-        <v>401674.3123801743</v>
+        <v>401607.1168899484</v>
       </c>
       <c r="I6" t="n">
-        <v>401674.3123801745</v>
+        <v>401607.1168899488</v>
       </c>
       <c r="J6" t="n">
-        <v>225251.0931875816</v>
+        <v>225183.8976973559</v>
       </c>
       <c r="K6" t="n">
-        <v>401674.3123801745</v>
+        <v>401607.1168899488</v>
       </c>
       <c r="L6" t="n">
-        <v>401674.3123801748</v>
+        <v>401607.1168899488</v>
       </c>
       <c r="M6" t="n">
-        <v>271143.4731045853</v>
+        <v>271077.7885326247</v>
       </c>
       <c r="N6" t="n">
         <v>363003.7210361238</v>
       </c>
       <c r="O6" t="n">
-        <v>399738.8261002735</v>
+        <v>399738.8261002733</v>
       </c>
       <c r="P6" t="n">
-        <v>399738.8261002732</v>
+        <v>399738.8261002733</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018694</v>
+        <v>45.9188813301871</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>49.80849691202685</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>9.269126437646378</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>1.009001502131838</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,16 +27588,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>29.38685482235646</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>308.0118248023393</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>243.5913466674049</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>16.62781306916122</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>8.486309342341059</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>23.70481751979031</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>114.7731302731594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,16 +28062,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.77869151724681e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="C37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="D37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="E37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="F37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="G37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="H37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="I37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="K37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="L37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="N37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="O37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="P37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="R37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="S37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="T37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="U37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="V37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="W37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="X37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.05625528840565</v>
+        <v>1.056255288405476</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>799.8889987916032</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502542</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>588.5617870086363</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306615</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>982.7371782969969</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
         <v>508.053000888219</v>
@@ -35902,7 +35902,7 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306615</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789363</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>344.8221831907453</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359034</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306615</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>759.2397825566175</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306618</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,7 +36528,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,16 +36844,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>714.8632233647911</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>584.5052752959929</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37090,7 +37090,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
@@ -37315,16 +37315,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>796.8202659558976</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147188</v>
+        <v>46.6346719014717</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327252</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586038</v>
+        <v>320.8136274586036</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818895</v>
+        <v>348.6896346818893</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559457</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110455</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335161</v>
+        <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629931</v>
+        <v>79.45049382629914</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>635.0591000995341</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>644.1207512809365</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37801,7 +37801,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165884</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37956,7 +37956,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>264.1343174770403</v>
       </c>
       <c r="K44" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38038,7 +38038,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38193,7 +38193,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
